--- a/exp/data/exp2/32_TNT_experiment1_part2_new_2015_12_04_1317.xlsx
+++ b/exp/data/exp2/32_TNT_experiment1_part2_new_2015_12_04_1317.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snishiyama/Experiments/TNT-DP/exp/data/exp2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A85DD-1B24-AB4F-B2F5-2ECD87C4A121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="240" windowWidth="13110" windowHeight="8280" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5180" yWindow="460" windowWidth="13120" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="32_TNT_experiment1_part2_new_20" sheetId="1" r:id="rId1"/>
-    <sheet name="learn" sheetId="2" r:id="rId2"/>
+    <sheet name="learn_test" sheetId="2" r:id="rId2"/>
     <sheet name="tar_recall" sheetId="3" r:id="rId3"/>
     <sheet name="sub_recall" sheetId="4" r:id="rId4"/>
     <sheet name="DP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DP!$A$1:$J$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn_test!$A$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sub_recall!$A$1:$H$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tar_recall!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2020,12 +2036,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2033,7 +2049,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2042,7 +2058,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2051,7 +2067,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2060,7 +2076,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2069,7 +2085,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2077,7 +2093,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2085,7 +2101,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2093,7 +2109,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2101,7 +2117,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2110,7 +2126,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2119,7 +2135,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2127,7 +2143,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2136,7 +2152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2144,7 +2160,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2153,7 +2169,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2162,7 +2178,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2170,14 +2186,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2635,48 +2651,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2693,12 +2709,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2740,7 +2759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2773,9 +2792,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2808,6 +2844,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2983,7 +3036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GP801"/>
   <sheetViews>
     <sheetView topLeftCell="EY1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2991,9 +3044,9 @@
       <selection pane="bottomLeft" activeCell="FH743" sqref="FH608:FJ743"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G2">
         <v>4</v>
       </c>
@@ -3618,7 +3671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G3">
         <v>4</v>
       </c>
@@ -3647,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G4">
         <v>4</v>
       </c>
@@ -3676,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G5">
         <v>4</v>
       </c>
@@ -3705,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G6">
         <v>4</v>
       </c>
@@ -3734,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -3781,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -3828,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -3875,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -3922,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -3969,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -4016,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -4063,7 +4116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -4110,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -4157,7 +4210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -4204,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -4251,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -4298,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -4345,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -4392,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -4439,7 +4492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -4486,7 +4539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -4533,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -4580,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -4627,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -4674,7 +4727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -4721,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4768,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -4815,7 +4868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -4862,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -4909,7 +4962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -4956,7 +5009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -5003,7 +5056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -5050,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -5097,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -5144,7 +5197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -5191,7 +5244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -5238,7 +5291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -5285,7 +5338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5332,7 +5385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -5379,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5426,7 +5479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5473,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -5520,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -5567,7 +5620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -5614,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -5661,7 +5714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -5708,7 +5761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -5755,7 +5808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -5802,7 +5855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -5849,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -5896,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G53">
         <v>4</v>
       </c>
@@ -5925,7 +5978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -5978,7 +6031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -6034,7 +6087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -6087,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>200</v>
       </c>
@@ -6143,7 +6196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -6199,7 +6252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -6252,7 +6305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>200</v>
       </c>
@@ -6308,7 +6361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>200</v>
       </c>
@@ -6364,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -6420,7 +6473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -6476,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -6532,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -6588,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -6644,7 +6697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -6700,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -6756,7 +6809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -6812,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>200</v>
       </c>
@@ -6868,7 +6921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -6924,7 +6977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -6980,7 +7033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -7036,7 +7089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>200</v>
       </c>
@@ -7092,7 +7145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -7148,7 +7201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -7204,7 +7257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -7257,7 +7310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>200</v>
       </c>
@@ -7313,7 +7366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>200</v>
       </c>
@@ -7369,7 +7422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -7425,7 +7478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>200</v>
       </c>
@@ -7481,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -7537,7 +7590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -7590,7 +7643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -7643,7 +7696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -7696,7 +7749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -7752,7 +7805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -7808,7 +7861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -7864,7 +7917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -7920,7 +7973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>200</v>
       </c>
@@ -7976,7 +8029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>200</v>
       </c>
@@ -8032,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -8088,7 +8141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -8141,7 +8194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -8197,7 +8250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -8250,7 +8303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -8306,7 +8359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -8362,7 +8415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -8418,7 +8471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -8474,7 +8527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -8548,7 +8601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -8616,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -8684,7 +8737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -8752,7 +8805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -8820,7 +8873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -8888,7 +8941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -8956,7 +9009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -9024,7 +9077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -9092,7 +9145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -9160,7 +9213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>200</v>
       </c>
@@ -9228,7 +9281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -9296,7 +9349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>200</v>
       </c>
@@ -9364,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -9432,7 +9485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -9500,7 +9553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>200</v>
       </c>
@@ -9568,7 +9621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -9636,7 +9689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -9704,7 +9757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -9772,7 +9825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -9840,7 +9893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -9908,7 +9961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -9976,7 +10029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -10044,7 +10097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>200</v>
       </c>
@@ -10112,7 +10165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>200</v>
       </c>
@@ -10180,7 +10233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -10248,7 +10301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>200</v>
       </c>
@@ -10313,7 +10366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -10381,7 +10434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -10449,7 +10502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>200</v>
       </c>
@@ -10517,7 +10570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>200</v>
       </c>
@@ -10585,7 +10638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -10653,7 +10706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>200</v>
       </c>
@@ -10721,7 +10774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>200</v>
       </c>
@@ -10789,7 +10842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>200</v>
       </c>
@@ -10857,7 +10910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>200</v>
       </c>
@@ -10925,7 +10978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>200</v>
       </c>
@@ -10993,7 +11046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -11061,7 +11114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>200</v>
       </c>
@@ -11129,7 +11182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>200</v>
       </c>
@@ -11197,7 +11250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -11265,7 +11318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>200</v>
       </c>
@@ -11330,7 +11383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -11398,7 +11451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>200</v>
       </c>
@@ -11466,7 +11519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>200</v>
       </c>
@@ -11534,7 +11587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -11602,7 +11655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G146">
         <v>4</v>
       </c>
@@ -11637,7 +11690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G147">
         <v>4</v>
       </c>
@@ -11666,7 +11719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G148">
         <v>4</v>
       </c>
@@ -11695,7 +11748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G149">
         <v>4</v>
       </c>
@@ -11724,7 +11777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G150">
         <v>4</v>
       </c>
@@ -11753,7 +11806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>200</v>
       </c>
@@ -11812,7 +11865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>200</v>
       </c>
@@ -11871,7 +11924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>200</v>
       </c>
@@ -11930,7 +11983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -11986,7 +12039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -12045,7 +12098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -12104,7 +12157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -12163,7 +12216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>200</v>
       </c>
@@ -12222,7 +12275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -12281,7 +12334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>200</v>
       </c>
@@ -12340,7 +12393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -12399,7 +12452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -12458,7 +12511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -12517,7 +12570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>200</v>
       </c>
@@ -12576,7 +12629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -12635,7 +12688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -12694,7 +12747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -12753,7 +12806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -12812,7 +12865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>200</v>
       </c>
@@ -12871,7 +12924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -12930,7 +12983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -12989,7 +13042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -13048,7 +13101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -13107,7 +13160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -13166,7 +13219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -13225,7 +13278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -13284,7 +13337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>200</v>
       </c>
@@ -13343,7 +13396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
@@ -13402,7 +13455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -13461,7 +13514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -13520,7 +13573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -13579,7 +13632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -13638,7 +13691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -13697,7 +13750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -13756,7 +13809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -13815,7 +13868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -13874,7 +13927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -13933,7 +13986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -13992,7 +14045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -14051,7 +14104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -14110,7 +14163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -14169,7 +14222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -14228,7 +14281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -14287,7 +14340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G194">
         <v>4</v>
       </c>
@@ -14316,7 +14369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G195">
         <v>4</v>
       </c>
@@ -14345,7 +14398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G196">
         <v>4</v>
       </c>
@@ -14374,7 +14427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G197">
         <v>4</v>
       </c>
@@ -14403,7 +14456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G198">
         <v>4</v>
       </c>
@@ -14432,7 +14485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G199">
         <v>4</v>
       </c>
@@ -14461,7 +14514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>211</v>
       </c>
@@ -14505,7 +14558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>235</v>
       </c>
@@ -14549,7 +14602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>253</v>
       </c>
@@ -14593,7 +14646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>211</v>
       </c>
@@ -14637,7 +14690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>245</v>
       </c>
@@ -14681,7 +14734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>289</v>
       </c>
@@ -14725,7 +14778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>235</v>
       </c>
@@ -14769,7 +14822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>247</v>
       </c>
@@ -14813,7 +14866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>205</v>
       </c>
@@ -14857,7 +14910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>211</v>
       </c>
@@ -14901,7 +14954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>203</v>
       </c>
@@ -14945,7 +14998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>211</v>
       </c>
@@ -14989,7 +15042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>235</v>
       </c>
@@ -15033,7 +15086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>235</v>
       </c>
@@ -15077,7 +15130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>291</v>
       </c>
@@ -15121,7 +15174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>283</v>
       </c>
@@ -15165,7 +15218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G216">
         <v>4</v>
       </c>
@@ -15194,7 +15247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G217">
         <v>4</v>
       </c>
@@ -15223,7 +15276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G218">
         <v>4</v>
       </c>
@@ -15252,7 +15305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G219">
         <v>4</v>
       </c>
@@ -15281,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G220">
         <v>4</v>
       </c>
@@ -15310,7 +15363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>267</v>
       </c>
@@ -15354,7 +15407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>287</v>
       </c>
@@ -15398,7 +15451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>211</v>
       </c>
@@ -15442,7 +15495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>255</v>
       </c>
@@ -15486,7 +15539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>285</v>
       </c>
@@ -15530,7 +15583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>217</v>
       </c>
@@ -15574,7 +15627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>233</v>
       </c>
@@ -15618,7 +15671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>239</v>
       </c>
@@ -15662,7 +15715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>279</v>
       </c>
@@ -15706,7 +15759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>231</v>
       </c>
@@ -15750,7 +15803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>221</v>
       </c>
@@ -15794,7 +15847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>235</v>
       </c>
@@ -15838,7 +15891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>209</v>
       </c>
@@ -15882,7 +15935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>257</v>
       </c>
@@ -15926,7 +15979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G235">
         <v>4</v>
       </c>
@@ -15955,7 +16008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G236">
         <v>4</v>
       </c>
@@ -15984,7 +16037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>211</v>
       </c>
@@ -16028,7 +16081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>245</v>
       </c>
@@ -16072,7 +16125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>235</v>
       </c>
@@ -16116,7 +16169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>203</v>
       </c>
@@ -16160,7 +16213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>211</v>
       </c>
@@ -16204,7 +16257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>235</v>
       </c>
@@ -16248,7 +16301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>289</v>
       </c>
@@ -16292,7 +16345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>211</v>
       </c>
@@ -16336,7 +16389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>291</v>
       </c>
@@ -16380,7 +16433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>211</v>
       </c>
@@ -16424,7 +16477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>283</v>
       </c>
@@ -16468,7 +16521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>235</v>
       </c>
@@ -16512,7 +16565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>247</v>
       </c>
@@ -16556,7 +16609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>253</v>
       </c>
@@ -16600,7 +16653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>235</v>
       </c>
@@ -16644,7 +16697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>205</v>
       </c>
@@ -16688,7 +16741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G253">
         <v>4</v>
       </c>
@@ -16717,7 +16770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G254">
         <v>4</v>
       </c>
@@ -16746,7 +16799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G255">
         <v>4</v>
       </c>
@@ -16775,7 +16828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G256">
         <v>4</v>
       </c>
@@ -16804,7 +16857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>235</v>
       </c>
@@ -16848,7 +16901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>289</v>
       </c>
@@ -16892,7 +16945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>211</v>
       </c>
@@ -16936,7 +16989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>211</v>
       </c>
@@ -16980,7 +17033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>211</v>
       </c>
@@ -17024,7 +17077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>211</v>
       </c>
@@ -17068,7 +17121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>235</v>
       </c>
@@ -17112,7 +17165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>205</v>
       </c>
@@ -17156,7 +17209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>235</v>
       </c>
@@ -17200,7 +17253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>283</v>
       </c>
@@ -17244,7 +17297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>245</v>
       </c>
@@ -17288,7 +17341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>247</v>
       </c>
@@ -17332,7 +17385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>235</v>
       </c>
@@ -17376,7 +17429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>253</v>
       </c>
@@ -17420,7 +17473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>203</v>
       </c>
@@ -17464,7 +17517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>291</v>
       </c>
@@ -17508,7 +17561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G273">
         <v>4</v>
       </c>
@@ -17537,7 +17590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>235</v>
       </c>
@@ -17581,7 +17634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>231</v>
       </c>
@@ -17625,7 +17678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>255</v>
       </c>
@@ -17669,7 +17722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>267</v>
       </c>
@@ -17713,7 +17766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>221</v>
       </c>
@@ -17757,7 +17810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>279</v>
       </c>
@@ -17801,7 +17854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>287</v>
       </c>
@@ -17845,7 +17898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>209</v>
       </c>
@@ -17889,7 +17942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>217</v>
       </c>
@@ -17933,7 +17986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>211</v>
       </c>
@@ -17977,7 +18030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>239</v>
       </c>
@@ -18021,7 +18074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>233</v>
       </c>
@@ -18065,7 +18118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>285</v>
       </c>
@@ -18109,7 +18162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>257</v>
       </c>
@@ -18153,7 +18206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>231</v>
       </c>
@@ -18215,7 +18268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>267</v>
       </c>
@@ -18271,7 +18324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>209</v>
       </c>
@@ -18327,7 +18380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>279</v>
       </c>
@@ -18383,7 +18436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>221</v>
       </c>
@@ -18439,7 +18492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>257</v>
       </c>
@@ -18495,7 +18548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>239</v>
       </c>
@@ -18551,7 +18604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>207</v>
       </c>
@@ -18607,7 +18660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>261</v>
       </c>
@@ -18663,7 +18716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>225</v>
       </c>
@@ -18719,7 +18772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>285</v>
       </c>
@@ -18775,7 +18828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>271</v>
       </c>
@@ -18831,7 +18884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>281</v>
       </c>
@@ -18887,7 +18940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>255</v>
       </c>
@@ -18943,7 +18996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>249</v>
       </c>
@@ -18999,7 +19052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>217</v>
       </c>
@@ -19055,7 +19108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>213</v>
       </c>
@@ -19111,7 +19164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>233</v>
       </c>
@@ -19167,7 +19220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>287</v>
       </c>
@@ -19223,7 +19276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>229</v>
       </c>
@@ -19279,7 +19332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>251</v>
       </c>
@@ -19335,7 +19388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>269</v>
       </c>
@@ -19391,7 +19444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>241</v>
       </c>
@@ -19447,7 +19500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>243</v>
       </c>
@@ -19503,7 +19556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G312">
         <v>4</v>
       </c>
@@ -19538,7 +19591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>255</v>
       </c>
@@ -19597,7 +19650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>257</v>
       </c>
@@ -19653,7 +19706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>251</v>
       </c>
@@ -19709,7 +19762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>239</v>
       </c>
@@ -19765,7 +19818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>207</v>
       </c>
@@ -19821,7 +19874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>231</v>
       </c>
@@ -19877,7 +19930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>271</v>
       </c>
@@ -19933,7 +19986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>233</v>
       </c>
@@ -19989,7 +20042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>269</v>
       </c>
@@ -20045,7 +20098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>267</v>
       </c>
@@ -20101,7 +20154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>225</v>
       </c>
@@ -20157,7 +20210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>285</v>
       </c>
@@ -20213,7 +20266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>287</v>
       </c>
@@ -20269,7 +20322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>261</v>
       </c>
@@ -20325,7 +20378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>279</v>
       </c>
@@ -20381,7 +20434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>249</v>
       </c>
@@ -20437,7 +20490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>217</v>
       </c>
@@ -20493,7 +20546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>243</v>
       </c>
@@ -20549,7 +20602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>229</v>
       </c>
@@ -20605,7 +20658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>241</v>
       </c>
@@ -20661,7 +20714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>209</v>
       </c>
@@ -20717,7 +20770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>213</v>
       </c>
@@ -20773,7 +20826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>221</v>
       </c>
@@ -20829,7 +20882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>281</v>
       </c>
@@ -20885,7 +20938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G337">
         <v>4</v>
       </c>
@@ -20920,7 +20973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>287</v>
       </c>
@@ -20979,7 +21032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>221</v>
       </c>
@@ -21035,7 +21088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>213</v>
       </c>
@@ -21091,7 +21144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>231</v>
       </c>
@@ -21147,7 +21200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>249</v>
       </c>
@@ -21203,7 +21256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>279</v>
       </c>
@@ -21259,7 +21312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>241</v>
       </c>
@@ -21315,7 +21368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>281</v>
       </c>
@@ -21371,7 +21424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>267</v>
       </c>
@@ -21427,7 +21480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>239</v>
       </c>
@@ -21483,7 +21536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>257</v>
       </c>
@@ -21539,7 +21592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>285</v>
       </c>
@@ -21595,7 +21648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>233</v>
       </c>
@@ -21651,7 +21704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>271</v>
       </c>
@@ -21707,7 +21760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>261</v>
       </c>
@@ -21763,7 +21816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>251</v>
       </c>
@@ -21819,7 +21872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>243</v>
       </c>
@@ -21875,7 +21928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>207</v>
       </c>
@@ -21931,7 +21984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>255</v>
       </c>
@@ -21987,7 +22040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>269</v>
       </c>
@@ -22043,7 +22096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>209</v>
       </c>
@@ -22099,7 +22152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>225</v>
       </c>
@@ -22155,7 +22208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>217</v>
       </c>
@@ -22211,7 +22264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>229</v>
       </c>
@@ -22267,7 +22320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G362">
         <v>4</v>
       </c>
@@ -22302,7 +22355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>231</v>
       </c>
@@ -22364,7 +22417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>269</v>
       </c>
@@ -22420,7 +22473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>267</v>
       </c>
@@ -22476,7 +22529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>225</v>
       </c>
@@ -22532,7 +22585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>261</v>
       </c>
@@ -22588,7 +22641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>271</v>
       </c>
@@ -22644,7 +22697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>209</v>
       </c>
@@ -22700,7 +22753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>241</v>
       </c>
@@ -22756,7 +22809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>217</v>
       </c>
@@ -22812,7 +22865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>221</v>
       </c>
@@ -22868,7 +22921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>233</v>
       </c>
@@ -22924,7 +22977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>255</v>
       </c>
@@ -22980,7 +23033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>257</v>
       </c>
@@ -23036,7 +23089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>239</v>
       </c>
@@ -23092,7 +23145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>279</v>
       </c>
@@ -23148,7 +23201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>207</v>
       </c>
@@ -23204,7 +23257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>249</v>
       </c>
@@ -23260,7 +23313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>251</v>
       </c>
@@ -23316,7 +23369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>229</v>
       </c>
@@ -23372,7 +23425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>287</v>
       </c>
@@ -23428,7 +23481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>243</v>
       </c>
@@ -23484,7 +23537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>281</v>
       </c>
@@ -23540,7 +23593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>285</v>
       </c>
@@ -23596,7 +23649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>213</v>
       </c>
@@ -23652,7 +23705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G387">
         <v>4</v>
       </c>
@@ -23687,7 +23740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>207</v>
       </c>
@@ -23746,7 +23799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>279</v>
       </c>
@@ -23802,7 +23855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>217</v>
       </c>
@@ -23858,7 +23911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>255</v>
       </c>
@@ -23914,7 +23967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>271</v>
       </c>
@@ -23970,7 +24023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>213</v>
       </c>
@@ -24026,7 +24079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>229</v>
       </c>
@@ -24082,7 +24135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>239</v>
       </c>
@@ -24138,7 +24191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>251</v>
       </c>
@@ -24194,7 +24247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>267</v>
       </c>
@@ -24250,7 +24303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>261</v>
       </c>
@@ -24306,7 +24359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>225</v>
       </c>
@@ -24362,7 +24415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>233</v>
       </c>
@@ -24418,7 +24471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>287</v>
       </c>
@@ -24474,7 +24527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>243</v>
       </c>
@@ -24530,7 +24583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>269</v>
       </c>
@@ -24586,7 +24639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>285</v>
       </c>
@@ -24642,7 +24695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>249</v>
       </c>
@@ -24698,7 +24751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>221</v>
       </c>
@@ -24754,7 +24807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>209</v>
       </c>
@@ -24810,7 +24863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>241</v>
       </c>
@@ -24866,7 +24919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>231</v>
       </c>
@@ -24922,7 +24975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>281</v>
       </c>
@@ -24978,7 +25031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>257</v>
       </c>
@@ -25034,7 +25087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G412">
         <v>4</v>
       </c>
@@ -25069,7 +25122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>287</v>
       </c>
@@ -25128,7 +25181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>251</v>
       </c>
@@ -25184,7 +25237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>217</v>
       </c>
@@ -25240,7 +25293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>243</v>
       </c>
@@ -25296,7 +25349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>209</v>
       </c>
@@ -25352,7 +25405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>207</v>
       </c>
@@ -25408,7 +25461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>233</v>
       </c>
@@ -25464,7 +25517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>261</v>
       </c>
@@ -25520,7 +25573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>221</v>
       </c>
@@ -25576,7 +25629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>255</v>
       </c>
@@ -25632,7 +25685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>271</v>
       </c>
@@ -25688,7 +25741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>257</v>
       </c>
@@ -25744,7 +25797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>281</v>
       </c>
@@ -25800,7 +25853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>213</v>
       </c>
@@ -25856,7 +25909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>239</v>
       </c>
@@ -25912,7 +25965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>241</v>
       </c>
@@ -25968,7 +26021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>279</v>
       </c>
@@ -26024,7 +26077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>231</v>
       </c>
@@ -26080,7 +26133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>249</v>
       </c>
@@ -26136,7 +26189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>225</v>
       </c>
@@ -26192,7 +26245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>229</v>
       </c>
@@ -26248,7 +26301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>269</v>
       </c>
@@ -26304,7 +26357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>285</v>
       </c>
@@ -26360,7 +26413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>267</v>
       </c>
@@ -26416,7 +26469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>239</v>
       </c>
@@ -26490,7 +26543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>211</v>
       </c>
@@ -26558,7 +26611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>279</v>
       </c>
@@ -26626,7 +26679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>267</v>
       </c>
@@ -26694,7 +26747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>235</v>
       </c>
@@ -26762,7 +26815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>233</v>
       </c>
@@ -26830,7 +26883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>221</v>
       </c>
@@ -26898,7 +26951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>231</v>
       </c>
@@ -26966,7 +27019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>285</v>
       </c>
@@ -27034,7 +27087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>209</v>
       </c>
@@ -27102,7 +27155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>257</v>
       </c>
@@ -27170,7 +27223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>255</v>
       </c>
@@ -27238,7 +27291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>217</v>
       </c>
@@ -27306,7 +27359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>287</v>
       </c>
@@ -27374,7 +27427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G451">
         <v>4</v>
       </c>
@@ -27421,7 +27474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G452">
         <v>4</v>
       </c>
@@ -27456,7 +27509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>279</v>
       </c>
@@ -27518,7 +27571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>221</v>
       </c>
@@ -27574,7 +27627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>241</v>
       </c>
@@ -27630,7 +27683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>213</v>
       </c>
@@ -27686,7 +27739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>251</v>
       </c>
@@ -27742,7 +27795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>255</v>
       </c>
@@ -27798,7 +27851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>271</v>
       </c>
@@ -27854,7 +27907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>225</v>
       </c>
@@ -27910,7 +27963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>267</v>
       </c>
@@ -27966,7 +28019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>207</v>
       </c>
@@ -28022,7 +28075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>281</v>
       </c>
@@ -28078,7 +28131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>257</v>
       </c>
@@ -28134,7 +28187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>287</v>
       </c>
@@ -28190,7 +28243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>209</v>
       </c>
@@ -28246,7 +28299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>229</v>
       </c>
@@ -28302,7 +28355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>285</v>
       </c>
@@ -28358,7 +28411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>269</v>
       </c>
@@ -28414,7 +28467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>231</v>
       </c>
@@ -28470,7 +28523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>261</v>
       </c>
@@ -28526,7 +28579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>217</v>
       </c>
@@ -28582,7 +28635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>233</v>
       </c>
@@ -28638,7 +28691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>239</v>
       </c>
@@ -28694,7 +28747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>249</v>
       </c>
@@ -28750,7 +28803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>243</v>
       </c>
@@ -28806,7 +28859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G477">
         <v>4</v>
       </c>
@@ -28841,7 +28894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>249</v>
       </c>
@@ -28900,7 +28953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>251</v>
       </c>
@@ -28956,7 +29009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>217</v>
       </c>
@@ -29012,7 +29065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>267</v>
       </c>
@@ -29068,7 +29121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>257</v>
       </c>
@@ -29124,7 +29177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>225</v>
       </c>
@@ -29180,7 +29233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>269</v>
       </c>
@@ -29236,7 +29289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>285</v>
       </c>
@@ -29292,7 +29345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>281</v>
       </c>
@@ -29348,7 +29401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>287</v>
       </c>
@@ -29404,7 +29457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>209</v>
       </c>
@@ -29460,7 +29513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>233</v>
       </c>
@@ -29516,7 +29569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>213</v>
       </c>
@@ -29572,7 +29625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>229</v>
       </c>
@@ -29628,7 +29681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>261</v>
       </c>
@@ -29684,7 +29737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>231</v>
       </c>
@@ -29740,7 +29793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>221</v>
       </c>
@@ -29796,7 +29849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>279</v>
       </c>
@@ -29852,7 +29905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>207</v>
       </c>
@@ -29908,7 +29961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>241</v>
       </c>
@@ -29964,7 +30017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>239</v>
       </c>
@@ -30020,7 +30073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>243</v>
       </c>
@@ -30076,7 +30129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>255</v>
       </c>
@@ -30132,7 +30185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>271</v>
       </c>
@@ -30188,7 +30241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G502">
         <v>4</v>
       </c>
@@ -30223,7 +30276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>239</v>
       </c>
@@ -30282,7 +30335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>279</v>
       </c>
@@ -30338,7 +30391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>233</v>
       </c>
@@ -30394,7 +30447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>221</v>
       </c>
@@ -30450,7 +30503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>207</v>
       </c>
@@ -30506,7 +30559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>251</v>
       </c>
@@ -30562,7 +30615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>241</v>
       </c>
@@ -30618,7 +30671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>213</v>
       </c>
@@ -30674,7 +30727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>249</v>
       </c>
@@ -30730,7 +30783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>261</v>
       </c>
@@ -30786,7 +30839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>243</v>
       </c>
@@ -30842,7 +30895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>231</v>
       </c>
@@ -30898,7 +30951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>217</v>
       </c>
@@ -30954,7 +31007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>287</v>
       </c>
@@ -31010,7 +31063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>267</v>
       </c>
@@ -31066,7 +31119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>229</v>
       </c>
@@ -31122,7 +31175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>285</v>
       </c>
@@ -31178,7 +31231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>281</v>
       </c>
@@ -31234,7 +31287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>257</v>
       </c>
@@ -31290,7 +31343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>269</v>
       </c>
@@ -31346,7 +31399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>255</v>
       </c>
@@ -31402,7 +31455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>271</v>
       </c>
@@ -31458,7 +31511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>225</v>
       </c>
@@ -31514,7 +31567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>209</v>
       </c>
@@ -31570,7 +31623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G527">
         <v>4</v>
       </c>
@@ -31605,7 +31658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>231</v>
       </c>
@@ -31667,7 +31720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>269</v>
       </c>
@@ -31723,7 +31776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>241</v>
       </c>
@@ -31779,7 +31832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>285</v>
       </c>
@@ -31835,7 +31888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>257</v>
       </c>
@@ -31891,7 +31944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>221</v>
       </c>
@@ -31947,7 +32000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>217</v>
       </c>
@@ -32003,7 +32056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>271</v>
       </c>
@@ -32059,7 +32112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>287</v>
       </c>
@@ -32115,7 +32168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>261</v>
       </c>
@@ -32171,7 +32224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>255</v>
       </c>
@@ -32227,7 +32280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>207</v>
       </c>
@@ -32283,7 +32336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>213</v>
       </c>
@@ -32339,7 +32392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>233</v>
       </c>
@@ -32395,7 +32448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>209</v>
       </c>
@@ -32451,7 +32504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>249</v>
       </c>
@@ -32507,7 +32560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>225</v>
       </c>
@@ -32563,7 +32616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>251</v>
       </c>
@@ -32619,7 +32672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>279</v>
       </c>
@@ -32675,7 +32728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>239</v>
       </c>
@@ -32731,7 +32784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>229</v>
       </c>
@@ -32787,7 +32840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>267</v>
       </c>
@@ -32843,7 +32896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>281</v>
       </c>
@@ -32899,7 +32952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>243</v>
       </c>
@@ -32955,7 +33008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G552">
         <v>4</v>
       </c>
@@ -32990,7 +33043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>229</v>
       </c>
@@ -33049,7 +33102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>257</v>
       </c>
@@ -33105,7 +33158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>233</v>
       </c>
@@ -33161,7 +33214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>269</v>
       </c>
@@ -33217,7 +33270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>271</v>
       </c>
@@ -33273,7 +33326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>207</v>
       </c>
@@ -33329,7 +33382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
         <v>267</v>
       </c>
@@ -33385,7 +33438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>217</v>
       </c>
@@ -33441,7 +33494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>225</v>
       </c>
@@ -33497,7 +33550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>285</v>
       </c>
@@ -33553,7 +33606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>241</v>
       </c>
@@ -33609,7 +33662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="564" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>281</v>
       </c>
@@ -33665,7 +33718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>231</v>
       </c>
@@ -33721,7 +33774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>287</v>
       </c>
@@ -33777,7 +33830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="567" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="567" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>279</v>
       </c>
@@ -33833,7 +33886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>239</v>
       </c>
@@ -33889,7 +33942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="569" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>255</v>
       </c>
@@ -33945,7 +33998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>213</v>
       </c>
@@ -34001,7 +34054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="571" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B571" t="s">
         <v>209</v>
       </c>
@@ -34057,7 +34110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
         <v>249</v>
       </c>
@@ -34113,7 +34166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>221</v>
       </c>
@@ -34169,7 +34222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>261</v>
       </c>
@@ -34225,7 +34278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B575" t="s">
         <v>251</v>
       </c>
@@ -34281,7 +34334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>243</v>
       </c>
@@ -34337,7 +34390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G577">
         <v>4</v>
       </c>
@@ -34372,7 +34425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B578" t="s">
         <v>213</v>
       </c>
@@ -34431,7 +34484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>239</v>
       </c>
@@ -34487,7 +34540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>217</v>
       </c>
@@ -34543,7 +34596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B581" t="s">
         <v>229</v>
       </c>
@@ -34599,7 +34652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="582" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>233</v>
       </c>
@@ -34655,7 +34708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>221</v>
       </c>
@@ -34711,7 +34764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="584" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B584" t="s">
         <v>209</v>
       </c>
@@ -34767,7 +34820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>261</v>
       </c>
@@ -34823,7 +34876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>267</v>
       </c>
@@ -34879,7 +34932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="587" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>249</v>
       </c>
@@ -34935,7 +34988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>225</v>
       </c>
@@ -34991,7 +35044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="589" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>269</v>
       </c>
@@ -35047,7 +35100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
         <v>279</v>
       </c>
@@ -35103,7 +35156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="591" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="591" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>243</v>
       </c>
@@ -35159,7 +35212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="592" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>287</v>
       </c>
@@ -35215,7 +35268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>285</v>
       </c>
@@ -35271,7 +35324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
         <v>271</v>
       </c>
@@ -35327,7 +35380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>231</v>
       </c>
@@ -35383,7 +35436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>257</v>
       </c>
@@ -35439,7 +35492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>241</v>
       </c>
@@ -35495,7 +35548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>281</v>
       </c>
@@ -35551,7 +35604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B599" t="s">
         <v>207</v>
       </c>
@@ -35607,7 +35660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>255</v>
       </c>
@@ -35663,7 +35716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>251</v>
       </c>
@@ -35719,7 +35772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G602">
         <v>4</v>
       </c>
@@ -35754,7 +35807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G603">
         <v>4</v>
       </c>
@@ -35783,7 +35836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G604">
         <v>4</v>
       </c>
@@ -35812,7 +35865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G605">
         <v>4</v>
       </c>
@@ -35841,7 +35894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G606">
         <v>4</v>
       </c>
@@ -35879,7 +35932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G607">
         <v>4</v>
       </c>
@@ -35908,7 +35961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>353</v>
       </c>
@@ -35973,7 +36026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>353</v>
       </c>
@@ -36038,7 +36091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>353</v>
       </c>
@@ -36103,7 +36156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>359</v>
       </c>
@@ -36168,7 +36221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>353</v>
       </c>
@@ -36233,7 +36286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>359</v>
       </c>
@@ -36298,7 +36351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>359</v>
       </c>
@@ -36363,7 +36416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>353</v>
       </c>
@@ -36428,7 +36481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>353</v>
       </c>
@@ -36493,7 +36546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>353</v>
       </c>
@@ -36558,7 +36611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>359</v>
       </c>
@@ -36623,7 +36676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>359</v>
       </c>
@@ -36688,7 +36741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>359</v>
       </c>
@@ -36753,7 +36806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>359</v>
       </c>
@@ -36818,7 +36871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>353</v>
       </c>
@@ -36883,7 +36936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>353</v>
       </c>
@@ -36948,7 +37001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>359</v>
       </c>
@@ -37013,7 +37066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>359</v>
       </c>
@@ -37078,7 +37131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>353</v>
       </c>
@@ -37143,7 +37196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>353</v>
       </c>
@@ -37208,7 +37261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="628" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>353</v>
       </c>
@@ -37273,7 +37326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="629" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>353</v>
       </c>
@@ -37338,7 +37391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>359</v>
       </c>
@@ -37403,7 +37456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>359</v>
       </c>
@@ -37468,7 +37521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="632" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>353</v>
       </c>
@@ -37533,7 +37586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>359</v>
       </c>
@@ -37598,7 +37651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>353</v>
       </c>
@@ -37663,7 +37716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>353</v>
       </c>
@@ -37728,7 +37781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>359</v>
       </c>
@@ -37793,7 +37846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>359</v>
       </c>
@@ -37858,7 +37911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>359</v>
       </c>
@@ -37923,7 +37976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>353</v>
       </c>
@@ -37988,7 +38041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>353</v>
       </c>
@@ -38053,7 +38106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>353</v>
       </c>
@@ -38118,7 +38171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>353</v>
       </c>
@@ -38183,7 +38236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>353</v>
       </c>
@@ -38248,7 +38301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>353</v>
       </c>
@@ -38313,7 +38366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>359</v>
       </c>
@@ -38378,7 +38431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>359</v>
       </c>
@@ -38443,7 +38496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>353</v>
       </c>
@@ -38520,7 +38573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>359</v>
       </c>
@@ -38585,7 +38638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>359</v>
       </c>
@@ -38650,7 +38703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>359</v>
       </c>
@@ -38715,7 +38768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="651" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>359</v>
       </c>
@@ -38780,7 +38833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>359</v>
       </c>
@@ -38845,7 +38898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>353</v>
       </c>
@@ -38910,7 +38963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>353</v>
       </c>
@@ -38975,7 +39028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>359</v>
       </c>
@@ -39040,7 +39093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>359</v>
       </c>
@@ -39105,7 +39158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>359</v>
       </c>
@@ -39170,7 +39223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>353</v>
       </c>
@@ -39235,7 +39288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>359</v>
       </c>
@@ -39300,7 +39353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>353</v>
       </c>
@@ -39365,7 +39418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>353</v>
       </c>
@@ -39430,7 +39483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>359</v>
       </c>
@@ -39495,7 +39548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>359</v>
       </c>
@@ -39560,7 +39613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>353</v>
       </c>
@@ -39625,7 +39678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>359</v>
       </c>
@@ -39690,7 +39743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>353</v>
       </c>
@@ -39755,7 +39808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>353</v>
       </c>
@@ -39820,7 +39873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>359</v>
       </c>
@@ -39885,7 +39938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="669" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>359</v>
       </c>
@@ -39950,7 +40003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>353</v>
       </c>
@@ -40015,7 +40068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>359</v>
       </c>
@@ -40080,7 +40133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="672" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>359</v>
       </c>
@@ -40145,7 +40198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>359</v>
       </c>
@@ -40210,7 +40263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="674" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>353</v>
       </c>
@@ -40275,7 +40328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="675" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>359</v>
       </c>
@@ -40340,7 +40393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>353</v>
       </c>
@@ -40405,7 +40458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="677" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>359</v>
       </c>
@@ -40470,7 +40523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>353</v>
       </c>
@@ -40535,7 +40588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="679" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>359</v>
       </c>
@@ -40600,7 +40653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>359</v>
       </c>
@@ -40665,7 +40718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>359</v>
       </c>
@@ -40730,7 +40783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="682" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>353</v>
       </c>
@@ -40795,7 +40848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>359</v>
       </c>
@@ -40860,7 +40913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>359</v>
       </c>
@@ -40925,7 +40978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>359</v>
       </c>
@@ -40990,7 +41043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>359</v>
       </c>
@@ -41055,7 +41108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>353</v>
       </c>
@@ -41120,7 +41173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="688" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>359</v>
       </c>
@@ -41185,7 +41238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>359</v>
       </c>
@@ -41250,7 +41303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>353</v>
       </c>
@@ -41315,7 +41368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="691" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>359</v>
       </c>
@@ -41380,7 +41433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>353</v>
       </c>
@@ -41445,7 +41498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="693" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>359</v>
       </c>
@@ -41510,7 +41563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>353</v>
       </c>
@@ -41575,7 +41628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>353</v>
       </c>
@@ -41652,7 +41705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="696" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>353</v>
       </c>
@@ -41717,7 +41770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="697" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>353</v>
       </c>
@@ -41782,7 +41835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>353</v>
       </c>
@@ -41847,7 +41900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>359</v>
       </c>
@@ -41912,7 +41965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>353</v>
       </c>
@@ -41977,7 +42030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>353</v>
       </c>
@@ -42042,7 +42095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>353</v>
       </c>
@@ -42107,7 +42160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>359</v>
       </c>
@@ -42172,7 +42225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="704" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>359</v>
       </c>
@@ -42237,7 +42290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>353</v>
       </c>
@@ -42302,7 +42355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="706" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>353</v>
       </c>
@@ -42367,7 +42420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="707" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>359</v>
       </c>
@@ -42432,7 +42485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="708" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>353</v>
       </c>
@@ -42497,7 +42550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>353</v>
       </c>
@@ -42562,7 +42615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="710" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>359</v>
       </c>
@@ -42627,7 +42680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>359</v>
       </c>
@@ -42692,7 +42745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>353</v>
       </c>
@@ -42757,7 +42810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>353</v>
       </c>
@@ -42822,7 +42875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>359</v>
       </c>
@@ -42887,7 +42940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="715" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>353</v>
       </c>
@@ -42952,7 +43005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="716" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>353</v>
       </c>
@@ -43017,7 +43070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>353</v>
       </c>
@@ -43082,7 +43135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="718" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>353</v>
       </c>
@@ -43147,7 +43200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>359</v>
       </c>
@@ -43212,7 +43265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="720" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>359</v>
       </c>
@@ -43277,7 +43330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>359</v>
       </c>
@@ -43342,7 +43395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="722" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>359</v>
       </c>
@@ -43407,7 +43460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>359</v>
       </c>
@@ -43472,7 +43525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>353</v>
       </c>
@@ -43537,7 +43590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>353</v>
       </c>
@@ -43602,7 +43655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>353</v>
       </c>
@@ -43667,7 +43720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>359</v>
       </c>
@@ -43732,7 +43785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>359</v>
       </c>
@@ -43797,7 +43850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="729" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>353</v>
       </c>
@@ -43862,7 +43915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="730" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>353</v>
       </c>
@@ -43927,7 +43980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>359</v>
       </c>
@@ -43992,7 +44045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>359</v>
       </c>
@@ -44057,7 +44110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="733" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>353</v>
       </c>
@@ -44122,7 +44175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="734" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>353</v>
       </c>
@@ -44187,7 +44240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="735" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>359</v>
       </c>
@@ -44252,7 +44305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="736" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>359</v>
       </c>
@@ -44317,7 +44370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>353</v>
       </c>
@@ -44382,7 +44435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="738" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>359</v>
       </c>
@@ -44447,7 +44500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="739" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>359</v>
       </c>
@@ -44512,7 +44565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>353</v>
       </c>
@@ -44577,7 +44630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="741" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>353</v>
       </c>
@@ -44642,7 +44695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="742" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>359</v>
       </c>
@@ -44707,7 +44760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="743" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>353</v>
       </c>
@@ -44772,7 +44825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G744">
         <v>4</v>
       </c>
@@ -44801,7 +44854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G745">
         <v>4</v>
       </c>
@@ -44830,7 +44883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="746" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G746">
         <v>4</v>
       </c>
@@ -44859,7 +44912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="747" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G747">
         <v>4</v>
       </c>
@@ -44888,7 +44941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G748">
         <v>4</v>
       </c>
@@ -44917,7 +44970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="749" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>200</v>
       </c>
@@ -44976,7 +45029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="750" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>200</v>
       </c>
@@ -45035,7 +45088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>200</v>
       </c>
@@ -45094,7 +45147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>200</v>
       </c>
@@ -45153,7 +45206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="753" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>200</v>
       </c>
@@ -45212,7 +45265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="754" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>200</v>
       </c>
@@ -45271,7 +45324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="755" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>200</v>
       </c>
@@ -45330,7 +45383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>200</v>
       </c>
@@ -45389,7 +45442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="757" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>200</v>
       </c>
@@ -45448,7 +45501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="758" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>200</v>
       </c>
@@ -45507,7 +45560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="759" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>200</v>
       </c>
@@ -45566,7 +45619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>200</v>
       </c>
@@ -45625,7 +45678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="761" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>200</v>
       </c>
@@ -45681,7 +45734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="762" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>200</v>
       </c>
@@ -45740,7 +45793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="763" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>200</v>
       </c>
@@ -45799,7 +45852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="764" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>200</v>
       </c>
@@ -45855,7 +45908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="765" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>200</v>
       </c>
@@ -45914,7 +45967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>200</v>
       </c>
@@ -45973,7 +46026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="767" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>200</v>
       </c>
@@ -46032,7 +46085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="768" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>200</v>
       </c>
@@ -46091,7 +46144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="769" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>200</v>
       </c>
@@ -46150,7 +46203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="770" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>200</v>
       </c>
@@ -46209,7 +46262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>200</v>
       </c>
@@ -46268,7 +46321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>200</v>
       </c>
@@ -46327,7 +46380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="773" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>200</v>
       </c>
@@ -46386,7 +46439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>200</v>
       </c>
@@ -46445,7 +46498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="775" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>200</v>
       </c>
@@ -46504,7 +46557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="776" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>200</v>
       </c>
@@ -46563,7 +46616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="777" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>200</v>
       </c>
@@ -46622,7 +46675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="778" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>200</v>
       </c>
@@ -46681,7 +46734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>200</v>
       </c>
@@ -46740,7 +46793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>200</v>
       </c>
@@ -46799,7 +46852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="781" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>200</v>
       </c>
@@ -46855,7 +46908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="782" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>200</v>
       </c>
@@ -46914,7 +46967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="783" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>200</v>
       </c>
@@ -46973,7 +47026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="784" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>200</v>
       </c>
@@ -47029,7 +47082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G785">
         <v>4</v>
       </c>
@@ -47058,7 +47111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G786">
         <v>4</v>
       </c>
@@ -47087,7 +47140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="787" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G787">
         <v>4</v>
       </c>
@@ -47116,7 +47169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="788" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G788">
         <v>4</v>
       </c>
@@ -47145,7 +47198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>200</v>
       </c>
@@ -47204,7 +47257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="790" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>200</v>
       </c>
@@ -47263,7 +47316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="791" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>200</v>
       </c>
@@ -47322,7 +47375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>200</v>
       </c>
@@ -47381,7 +47434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="793" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>200</v>
       </c>
@@ -47440,7 +47493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="794" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>200</v>
       </c>
@@ -47499,7 +47552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="795" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>200</v>
       </c>
@@ -47558,7 +47611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="796" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>200</v>
       </c>
@@ -47617,7 +47670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="797" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>200</v>
       </c>
@@ -47676,7 +47729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>200</v>
       </c>
@@ -47735,7 +47788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>200</v>
       </c>
@@ -47794,7 +47847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="800" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>200</v>
       </c>
@@ -47853,7 +47906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="801" spans="7:198" x14ac:dyDescent="0.15">
+    <row r="801" spans="7:198" x14ac:dyDescent="0.2">
       <c r="G801">
         <v>4</v>
       </c>
@@ -47889,16 +47942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -47924,7 +47977,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -47950,7 +48003,7 @@
         <v>1.1556181907700001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -47976,7 +48029,7 @@
         <v>1.6582851409899999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -48002,7 +48055,7 @@
         <v>1.3907310962699999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -48025,7 +48078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -48051,7 +48104,7 @@
         <v>1.6078610420199999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -48077,7 +48130,7 @@
         <v>1.2910990714999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -48103,7 +48156,7 @@
         <v>1.4244618415800001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -48129,7 +48182,7 @@
         <v>1.8078291416200001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -48155,7 +48208,7 @@
         <v>1.4744379520399999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -48181,7 +48234,7 @@
         <v>1.5243461132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -48207,7 +48260,7 @@
         <v>1.5743811130500001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -48233,7 +48286,7 @@
         <v>1.55772089958</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -48259,7 +48312,7 @@
         <v>1.52441692352</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -48285,7 +48338,7 @@
         <v>1.4078228473700001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -48311,7 +48364,7 @@
         <v>1.5247330665600001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -48337,7 +48390,7 @@
         <v>1.5083620548200001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -48363,7 +48416,7 @@
         <v>1.9904160499600001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -48389,7 +48442,7 @@
         <v>1.7076330184899999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -48415,7 +48468,7 @@
         <v>1.52441120148</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -48441,7 +48494,7 @@
         <v>1.5657439231900001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -48467,7 +48520,7 @@
         <v>1.6077499389600001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -48493,7 +48546,7 @@
         <v>1.4578349590299999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -48519,7 +48572,7 @@
         <v>1.2410531043999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
@@ -48545,7 +48598,7 @@
         <v>1.8912470340700001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -48571,7 +48624,7 @@
         <v>1.4910440444899999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -48597,7 +48650,7 @@
         <v>1.89115691185</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
@@ -48623,7 +48676,7 @@
         <v>1.3243401050600001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -48649,7 +48702,7 @@
         <v>1.2744910717</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -48675,7 +48728,7 @@
         <v>1.2744159698499999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -48701,7 +48754,7 @@
         <v>1.4910519123099999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -48727,7 +48780,7 @@
         <v>2.6749410629299999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -48753,7 +48806,7 @@
         <v>1.3410968780500001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -48779,7 +48832,7 @@
         <v>1.6244719028500001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -48805,7 +48858,7 @@
         <v>1.2412099838299999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -48831,7 +48884,7 @@
         <v>1.4744429588300001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -48857,7 +48910,7 @@
         <v>1.4912719726599999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -48883,7 +48936,7 @@
         <v>1.77433896065</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -48909,7 +48962,7 @@
         <v>1.4077789783500001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>200</v>
       </c>
@@ -48935,7 +48988,7 @@
         <v>1.4577748775499999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -48961,7 +49014,7 @@
         <v>2.20787811279</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -48987,7 +49040,7 @@
         <v>1.94115900993</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -49013,7 +49066,7 @@
         <v>1.77447891235</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -49040,8 +49093,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44">
-    <sortState ref="A2:H44">
+  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
       <sortCondition ref="E1:E44"/>
     </sortState>
   </autoFilter>
@@ -49051,16 +49104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -49086,7 +49139,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -49112,7 +49165,7 @@
         <v>1.4747729301500001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -49138,7 +49191,7 @@
         <v>2.04132890701</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -49164,7 +49217,7 @@
         <v>1.6245591640499999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -49190,7 +49243,7 @@
         <v>1.29909014702</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -49216,7 +49269,7 @@
         <v>2.6821529865299998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -49242,7 +49295,7 @@
         <v>1.65788221359</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>200</v>
       </c>
@@ -49268,7 +49321,7 @@
         <v>2.4914510250099999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -49294,7 +49347,7 @@
         <v>1.27450609207</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -49320,7 +49373,7 @@
         <v>2.0743789672899999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -49346,7 +49399,7 @@
         <v>1.54111504555</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -49372,7 +49425,7 @@
         <v>1.4902100563</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -49398,7 +49451,7 @@
         <v>1.40811896324</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -49421,7 +49474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -49447,7 +49500,7 @@
         <v>1.3747460842100001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>200</v>
       </c>
@@ -49473,7 +49526,7 @@
         <v>1.9745018482200001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
@@ -49497,7 +49550,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>200</v>
       </c>
@@ -49523,7 +49576,7 @@
         <v>1.50758481026</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -49549,7 +49602,7 @@
         <v>1.52444601059</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -49575,7 +49628,7 @@
         <v>1.37444400787</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -49601,7 +49654,7 @@
         <v>2.3577690124499999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -49627,7 +49680,7 @@
         <v>2.5079882144900001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -49653,7 +49706,7 @@
         <v>2.07463002205</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -49679,7 +49732,7 @@
         <v>1.4404680728899999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
@@ -49705,7 +49758,7 @@
         <v>1.6914129257199999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -49731,7 +49784,7 @@
         <v>1.5081329345700001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>200</v>
       </c>
@@ -49757,7 +49810,7 @@
         <v>2.5656299591099998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -49783,7 +49836,7 @@
         <v>1.641299963</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -49809,7 +49862,7 @@
         <v>1.72483110428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -49835,7 +49888,7 @@
         <v>1.5578660965</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -49861,7 +49914,7 @@
         <v>1.5079309940300001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -49887,7 +49940,7 @@
         <v>1.59148788452</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -49913,7 +49966,7 @@
         <v>1.44128704071</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -49936,7 +49989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -49962,7 +50015,7 @@
         <v>1.7914578914599999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -49988,7 +50041,7 @@
         <v>1.74115395546</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -50012,8 +50065,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37">
-    <sortState ref="A2:H37">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
       <sortCondition ref="E1:E37"/>
     </sortState>
   </autoFilter>
@@ -50023,16 +50076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -50058,7 +50111,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -50084,7 +50137,7 @@
         <v>2.17451405525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -50110,7 +50163,7 @@
         <v>1.6743531227099999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -50136,7 +50189,7 @@
         <v>2.12358212471</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
@@ -50162,7 +50215,7 @@
         <v>1.75791811943</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -50188,7 +50241,7 @@
         <v>1.4244270324699999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -50214,7 +50267,7 @@
         <v>1.2914259433699999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -50240,7 +50293,7 @@
         <v>1.50788497925</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>200</v>
       </c>
@@ -50266,7 +50319,7 @@
         <v>1.7412781715400001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -50292,7 +50345,7 @@
         <v>2.3078520297999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -50318,7 +50371,7 @@
         <v>1.891299963</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -50344,7 +50397,7 @@
         <v>1.1744270324699999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -50371,8 +50424,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13">
-    <sortState ref="A2:H13">
+  <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
       <sortCondition ref="E1:E13"/>
     </sortState>
   </autoFilter>
@@ -50382,16 +50435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>650</v>
       </c>
@@ -50423,7 +50476,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -50455,7 +50508,7 @@
         <v>0.414203882217</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>86</v>
       </c>
@@ -50487,7 +50540,7 @@
         <v>0.38111400604200002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>94</v>
       </c>
@@ -50519,7 +50572,7 @@
         <v>0.51244711875899995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -50551,7 +50604,7 @@
         <v>0.56416702270499997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -50583,7 +50636,7 @@
         <v>0.56435012817399999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -50615,7 +50668,7 @@
         <v>0.51369500160199999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -50647,7 +50700,7 @@
         <v>0.39747500419600001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -50679,7 +50732,7 @@
         <v>0.59709405899000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -50711,7 +50764,7 @@
         <v>0.430608987808</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -50743,7 +50796,7 @@
         <v>0.54752898216199997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -50775,7 +50828,7 @@
         <v>0.44732904434199999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -50807,7 +50860,7 @@
         <v>0.41218185424800002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -50839,7 +50892,7 @@
         <v>0.54741907119800004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -50871,7 +50924,7 @@
         <v>0.44774198532100001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -50903,7 +50956,7 @@
         <v>0.56422901153600002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -50935,7 +50988,7 @@
         <v>0.49550700187699998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -50967,7 +51020,7 @@
         <v>0.447302103043</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -50999,7 +51052,7 @@
         <v>0.46398401260400002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -51031,7 +51084,7 @@
         <v>0.53071904182399998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -51063,7 +51116,7 @@
         <v>0.69721698760999995</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -51095,7 +51148,7 @@
         <v>0.43086504936199999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -51127,7 +51180,7 @@
         <v>0.49703407287599999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -51159,7 +51212,7 @@
         <v>0.56417512893699995</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -51191,7 +51244,7 @@
         <v>0.56377196312</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -51223,7 +51276,7 @@
         <v>0.56419801711999995</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -51255,7 +51308,7 @@
         <v>0.49738717079200001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -51287,7 +51340,7 @@
         <v>0.41421890258799998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -51319,7 +51372,7 @@
         <v>0.431011915207</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -51351,7 +51404,7 @@
         <v>0.48074102401699997</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -51383,7 +51436,7 @@
         <v>0.56415796279899999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -51415,7 +51468,7 @@
         <v>0.46419811248800003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -51448,10 +51501,10 @@
       </c>
       <c r="K33">
         <f ca="1">RANDBETWEEN(37,136)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -51483,7 +51536,7 @@
         <v>0.53105497360200005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -51515,7 +51568,7 @@
         <v>0.38073515891999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -51547,7 +51600,7 @@
         <v>0.53048396110499996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -51579,7 +51632,7 @@
         <v>0.46409893035900002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -51611,7 +51664,7 @@
         <v>0.49777388572699999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -51643,7 +51696,7 @@
         <v>0.61420583725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -51675,7 +51728,7 @@
         <v>0.51428413391100003</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -51707,7 +51760,7 @@
         <v>0.61404395103499998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -51739,7 +51792,7 @@
         <v>0.51400113105800005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -51771,7 +51824,7 @@
         <v>0.480724096298</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -51803,7 +51856,7 @@
         <v>0.49751591682399998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -51835,7 +51888,7 @@
         <v>0.48095989227300001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -51867,7 +51920,7 @@
         <v>0.58068394660900002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -51899,7 +51952,7 @@
         <v>0.530576944351</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -51931,7 +51984,7 @@
         <v>0.49719285964999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -51963,7 +52016,7 @@
         <v>0.51476478576700002</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -51995,7 +52048,7 @@
         <v>0.463675022125</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -52027,7 +52080,7 @@
         <v>0.44799089431799999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -52059,7 +52112,7 @@
         <v>0.49759387970000002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -52091,7 +52144,7 @@
         <v>0.51408910751299997</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -52127,7 +52180,7 @@
         <v>0.54420200983683331</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -52159,7 +52212,7 @@
         <v>0.464351177216</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -52191,7 +52244,7 @@
         <v>0.51274800300599999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -52223,7 +52276,7 @@
         <v>0.63073587417599997</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -52255,7 +52308,7 @@
         <v>0.512459039688</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -52287,7 +52340,7 @@
         <v>0.61430597305300005</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -52319,7 +52372,7 @@
         <v>0.64759612083399998</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -52351,7 +52404,7 @@
         <v>0.54742288589499999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -52383,7 +52436,7 @@
         <v>0.53106498718299999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -52415,7 +52468,7 @@
         <v>0.49774909019500002</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -52447,7 +52500,7 @@
         <v>0.46398401260400002</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -52479,7 +52532,7 @@
         <v>0.63082194328300001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -52511,7 +52564,7 @@
         <v>0.48110198974599999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -52543,7 +52596,7 @@
         <v>0.51428103446999995</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -52575,7 +52628,7 @@
         <v>0.53100800514199997</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -52607,7 +52660,7 @@
         <v>0.54792308807400003</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -52639,7 +52692,7 @@
         <v>0.49778985977200002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -52671,7 +52724,7 @@
         <v>0.43128991126999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -52703,7 +52756,7 @@
         <v>0.48076295852700002</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -52735,7 +52788,7 @@
         <v>0.58089709281900004</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -52767,7 +52820,7 @@
         <v>0.44764494895899998</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -52799,7 +52852,7 @@
         <v>0.49559497833299998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -52831,7 +52884,7 @@
         <v>0.564496994019</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -52863,7 +52916,7 @@
         <v>0.53087902069100001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -52895,7 +52948,7 @@
         <v>0.59757709503199996</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -52927,7 +52980,7 @@
         <v>0.54781413078300001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -52959,7 +53012,7 @@
         <v>0.51406097412100005</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -52991,7 +53044,7 @@
         <v>0.46457290649400002</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -53023,7 +53076,7 @@
         <v>0.48093891143799999</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -53055,7 +53108,7 @@
         <v>0.38116407394399998</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -53087,7 +53140,7 @@
         <v>0.51429891586300003</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -53119,7 +53172,7 @@
         <v>0.48088693618799999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -53151,7 +53204,7 @@
         <v>0.44711494445799999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -53183,7 +53236,7 @@
         <v>0.54777884483299999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -53215,7 +53268,7 @@
         <v>0.46402502059900003</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -53247,7 +53300,7 @@
         <v>0.49785113334699999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -53279,7 +53332,7 @@
         <v>0.61424493789699997</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -53311,7 +53364,7 @@
         <v>0.48075294494600002</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -53343,7 +53396,7 @@
         <v>0.44741797447199999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -53375,7 +53428,7 @@
         <v>0.51181316375700003</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -53407,7 +53460,7 @@
         <v>0.497895956039</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -53439,7 +53492,7 @@
         <v>0.464037179947</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -53471,7 +53524,7 @@
         <v>0.46411299705499998</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -53503,7 +53556,7 @@
         <v>0.41413497924800002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -53535,7 +53588,7 @@
         <v>0.49758911132799999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -53567,7 +53620,7 @@
         <v>0.43097114563</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -53599,7 +53652,7 @@
         <v>0.44761085510300003</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -53631,7 +53684,7 @@
         <v>0.51445198059099995</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -53663,7 +53716,7 @@
         <v>0.48094892501800002</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -53695,7 +53748,7 @@
         <v>0.49764895439099999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -53727,7 +53780,7 @@
         <v>0.49743700027499999</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -53759,7 +53812,7 @@
         <v>0.48075389862099999</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -53791,7 +53844,7 @@
         <v>0.48111009597799997</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -53823,7 +53876,7 @@
         <v>0.53089690208399998</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -53855,7 +53908,7 @@
         <v>0.49743199348400002</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -53887,7 +53940,7 @@
         <v>0.464577913284</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -53919,7 +53972,7 @@
         <v>0.44759583473199999</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -53951,7 +54004,7 @@
         <v>0.48118019103999998</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -53983,7 +54036,7 @@
         <v>0.43038105964700002</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -54015,7 +54068,7 @@
         <v>0.497669935226</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -54047,7 +54100,7 @@
         <v>0.46445894241300001</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -54079,7 +54132,7 @@
         <v>0.41445684433000002</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -54111,7 +54164,7 @@
         <v>0.53124094009400002</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -54143,7 +54196,7 @@
         <v>0.53104186058000002</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -54175,7 +54228,7 @@
         <v>0.54747915267900005</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -54207,7 +54260,7 @@
         <v>0.64764690399199998</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -54239,7 +54292,7 @@
         <v>0.51455283164999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -54271,7 +54324,7 @@
         <v>0.48094511032100001</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -54303,7 +54356,7 @@
         <v>0.481394052505</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -54335,7 +54388,7 @@
         <v>0.56432294845599995</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -54367,7 +54420,7 @@
         <v>0.76423788070700005</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -54399,7 +54452,7 @@
         <v>0.41421604156500003</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -54431,7 +54484,7 @@
         <v>0.445652961731</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -54463,7 +54516,7 @@
         <v>0.51421499252299996</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -54495,7 +54548,7 @@
         <v>0.48094201087999999</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -54527,7 +54580,7 @@
         <v>0.43096613884000001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -54559,7 +54612,7 @@
         <v>0.56437182426499999</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -54591,7 +54644,7 @@
         <v>0.53075289726300001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -54623,7 +54676,7 @@
         <v>0.54773092269900003</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -54655,7 +54708,7 @@
         <v>0.59779787063599998</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -54687,7 +54740,7 @@
         <v>0.51442217826799996</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -54719,7 +54772,7 @@
         <v>0.480679035187</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -54751,7 +54804,7 @@
         <v>0.51445198059099995</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -54783,7 +54836,7 @@
         <v>0.49729895591700002</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I139" t="s">
         <v>654</v>
       </c>
@@ -54791,7 +54844,7 @@
         <v>0.50747887173990247</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I140" t="s">
         <v>655</v>
       </c>
@@ -54799,7 +54852,7 @@
         <v>6.1881652487207922E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I141" t="s">
         <v>656</v>
       </c>
@@ -54810,7 +54863,7 @@
         <v>0.35277474052188268</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I142" t="s">
         <v>657</v>
       </c>
@@ -54818,7 +54871,7 @@
         <v>0.35277474052188268</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I144" t="s">
         <v>658</v>
       </c>
@@ -54828,8 +54881,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J137">
-    <sortState ref="A2:J137">
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J137">
       <sortCondition sortBy="cellColor" ref="I1:I137" dxfId="0"/>
     </sortState>
   </autoFilter>
